--- a/PictureViewer_Parts_List.xlsx
+++ b/PictureViewer_Parts_List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/203105268/Gary's Stuff/arduino/PictureViewer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/203105268/Gary's Stuff/Arduino/PictureViewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>http://www.ebay.com/itm/SanDisk-Ultra-16GB-SDHC-SDXC-SD-Class-10-48MB-s-320x-Memory-Card-/272283695507?hash=item3f655f7993:g:ZVQAAOSw4GVYIJOl</t>
   </si>
   <si>
-    <t>As nany as you like</t>
-  </si>
-  <si>
     <t>SD Card(s)</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>5V 0.3 A SS12F32 Mini Size SPDT Slide Switch</t>
+  </si>
+  <si>
+    <t>As many as you like</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,10 +661,10 @@
     </row>
     <row r="4" spans="1:3" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>15</v>
@@ -708,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="81" thickBot="1" x14ac:dyDescent="0.25">

--- a/PictureViewer_Parts_List.xlsx
+++ b/PictureViewer_Parts_List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/203105268/Gary's Stuff/Arduino/PictureViewer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/203105268/Gary's Stuff/arduino/PictureViewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
     <t>SD Card(s)</t>
   </si>
   <si>
-    <t>http://www.ebay.com/itm/112116077330?_trksid=p2055119.m1438.l2649&amp;ssPageName=STRK%3AMEBIDX%3AIT</t>
-  </si>
-  <si>
-    <t>5V 0.3 A SS12F32 Mini Size SPDT Slide Switch</t>
-  </si>
-  <si>
     <t>As many as you like</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/20-pcs-SS12D00G4-SPDT-1P2T-2-Position-3-Pin-PCB-Panel-Vertical-Slide-Switch-/401230840373?hash=item5d6b38c235:g:zAUAAOSw4GVYNT-6</t>
+  </si>
+  <si>
+    <t>SS12D00G4 SPDT 1P2T 2 Position 3 Pin PCB Panel Vertical Slide Switch</t>
   </si>
 </sst>
 </file>
@@ -626,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +661,7 @@
     </row>
     <row r="4" spans="1:3" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>16</v>
@@ -703,15 +703,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="81" thickBot="1" x14ac:dyDescent="0.25">
